--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/125.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/125.xlsx
@@ -479,13 +479,13 @@
         <v>-7.919643063682575</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.61148342537958</v>
+        <v>-21.52799874412014</v>
       </c>
       <c r="F2" t="n">
-        <v>0.146494067056304</v>
+        <v>-0.01188042139053882</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.801610751114779</v>
+        <v>-8.819108506691469</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.965188514051769</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.77854567902893</v>
+        <v>-21.67611609616019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.011640590646189</v>
+        <v>-0.1376794570831273</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.221354082108112</v>
+        <v>-8.295593651382216</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.00978927824983</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.99182860359809</v>
+        <v>-21.92445808897201</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1290845830110909</v>
+        <v>-0.2784046307404072</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.063561385478433</v>
+        <v>-8.178306376644926</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.042697899841979</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.03050064791539</v>
+        <v>-22.00275064493878</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09450952644826835</v>
+        <v>-0.2939418945634629</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.576396296224693</v>
+        <v>-7.719732199548905</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.046757179637234</v>
       </c>
       <c r="E6" t="n">
-        <v>-22.00664229440484</v>
+        <v>-21.97502508699651</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2113616795744025</v>
+        <v>-0.4306727496104732</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.70625085405117</v>
+        <v>-6.972251939666278</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.013127673867922</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.26064086816168</v>
+        <v>-22.22450621840831</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3895708688803193</v>
+        <v>-0.5269421838268955</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.044240212215951</v>
+        <v>-6.386793367353214</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.929623683179746</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.69069257919612</v>
+        <v>-22.60350691973842</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5710459147733352</v>
+        <v>-0.698096536223854</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.667043554419728</v>
+        <v>-5.980365337499706</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.775438322457183</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.78230767887524</v>
+        <v>-22.8425451324825</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7485461980835494</v>
+        <v>-0.8297086010812045</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.342418387463443</v>
+        <v>-5.705696042709558</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.535212909806538</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.17554516820181</v>
+        <v>-23.31689613473805</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.8300312755344208</v>
+        <v>-0.9211916975749169</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.109202981897866</v>
+        <v>-5.43746068095627</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.203703706299112</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.63426601550384</v>
+        <v>-23.7621526571286</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.094673217240527</v>
+        <v>-1.161779725495802</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.723719457462223</v>
+        <v>-5.118536096006807</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.7766900494677</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.17696533375886</v>
+        <v>-24.23913394507855</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.01899627994755</v>
+        <v>-1.103404983504837</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.57046375920504</v>
+        <v>-4.955614831173733</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.256750883844785</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.79067258774896</v>
+        <v>-24.85444968232787</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9328324229250414</v>
+        <v>-1.033462851266752</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.551861088076429</v>
+        <v>-4.852285671041486</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.669006432024785</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.33951249862884</v>
+        <v>-25.43681840230104</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8406648654699608</v>
+        <v>-0.9251664601577188</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.412768842712699</v>
+        <v>-4.736308650144529</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.037463674785577</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.94320706655549</v>
+        <v>-26.08023615102138</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.804725775991269</v>
+        <v>-0.9026379165149747</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.382114769657142</v>
+        <v>-4.703840755541347</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.386406460025549</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.69263070666772</v>
+        <v>-26.8320334039675</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.701029940344003</v>
+        <v>-0.8244480296924039</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.273984604781583</v>
+        <v>-4.611570528942061</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.749711118032979</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.53547348999295</v>
+        <v>-27.64214428631874</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6182052750115968</v>
+        <v>-0.7272936852330701</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.354579882982677</v>
+        <v>-4.642043708743542</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.153224094202371</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.30340446559989</v>
+        <v>-28.47463948661015</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5067652524871376</v>
+        <v>-0.5819337330659549</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.565618753399927</v>
+        <v>-4.836318174614141</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.612219982517486</v>
       </c>
       <c r="E19" t="n">
-        <v>-28.9751393420934</v>
+        <v>-29.17188520093522</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2385543357681835</v>
+        <v>-0.3032896756930043</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.711624054473475</v>
+        <v>-5.066438838832961</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.142192738284697</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.44421510593955</v>
+        <v>-29.60055576752976</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07501216706301155</v>
+        <v>-0.1227484301115691</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.025434738240145</v>
+        <v>-5.378812154580758</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.752901565333424</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.06081420749143</v>
+        <v>-30.21493037095719</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3790641237154481</v>
+        <v>0.3246299212592171</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.338996082656602</v>
+        <v>-5.65472814612197</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.44343796090936</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.55693840182879</v>
+        <v>-30.74288444450161</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4057825462431383</v>
+        <v>0.3431885913260262</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.550841639206894</v>
+        <v>-5.928644533854613</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.210737228817312</v>
       </c>
       <c r="E23" t="n">
-        <v>-30.91226164290244</v>
+        <v>-31.10441916879966</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6810287438435829</v>
+        <v>0.6167236365230506</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.855583215235437</v>
+        <v>-6.233875010569847</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.055250869127182</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.08906279823069</v>
+        <v>-31.31896834614736</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9399652145359993</v>
+        <v>0.8334777559677249</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.017345785441051</v>
+        <v>-6.451650932449707</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.9698087340005624</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.35496610370845</v>
+        <v>-31.6027263047031</v>
       </c>
       <c r="F25" t="n">
-        <v>1.195161594975226</v>
+        <v>1.052519930626115</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.108481762447213</v>
+        <v>-6.484363277396235</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.9448661687637784</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.20904147124821</v>
+        <v>-31.4949725933563</v>
       </c>
       <c r="F26" t="n">
-        <v>1.232968285077079</v>
+        <v>1.094213381187166</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.218083518389713</v>
+        <v>-6.602911915905189</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.9804665778170224</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.26174252077012</v>
+        <v>-31.58090422255263</v>
       </c>
       <c r="F27" t="n">
-        <v>1.430474384486709</v>
+        <v>1.340086425531186</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.487741581141274</v>
+        <v>-6.899136841971565</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.07085002143763</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.12295583833557</v>
+        <v>-31.41042210859987</v>
       </c>
       <c r="F28" t="n">
-        <v>1.589562667936122</v>
+        <v>1.484028565706895</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.563765637921801</v>
+        <v>-7.030680460732779</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.206603371195155</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.89076956871548</v>
+        <v>-31.22311203301119</v>
       </c>
       <c r="F29" t="n">
-        <v>1.57844017731389</v>
+        <v>1.510184752444891</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.905463216857354</v>
+        <v>-7.30887961848084</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.387108311265499</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.73156883810813</v>
+        <v>-31.07541513556169</v>
       </c>
       <c r="F30" t="n">
-        <v>1.706742384522339</v>
+        <v>1.617004663480115</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.059359375014102</v>
+        <v>-7.340139928387894</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.609827478644259</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.44015225029536</v>
+        <v>-30.80633397562043</v>
       </c>
       <c r="F31" t="n">
-        <v>1.660448378499521</v>
+        <v>1.565586978260771</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.037632628497532</v>
+        <v>-7.333657105282365</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.866947327722338</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.10566595648851</v>
+        <v>-30.41040753251705</v>
       </c>
       <c r="F32" t="n">
-        <v>1.570412428038416</v>
+        <v>1.516501349316945</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.130333087701106</v>
+        <v>-7.362394687646091</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.157432554700259</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.59364760082681</v>
+        <v>-29.9013812490579</v>
       </c>
       <c r="F33" t="n">
-        <v>1.618158469100707</v>
+        <v>1.492046536968636</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.495752127954931</v>
+        <v>-7.624303674513592</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.478857958153455</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.89863127363305</v>
+        <v>-29.29488283569307</v>
       </c>
       <c r="F34" t="n">
-        <v>1.604439915832144</v>
+        <v>1.488927350587544</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.426616681849886</v>
+        <v>-7.60365739851461</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.823310314119399</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.42816947634012</v>
+        <v>-28.84957986773729</v>
       </c>
       <c r="F35" t="n">
-        <v>1.652190845901302</v>
+        <v>1.510927881488662</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.510927605269834</v>
+        <v>-7.621624498750522</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.184544020802743</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.81205927547493</v>
+        <v>-28.22314652887261</v>
       </c>
       <c r="F36" t="n">
-        <v>1.531838163858457</v>
+        <v>1.410297453146951</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.502498957431273</v>
+        <v>-7.522768779901503</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.559595891584153</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.06644417171204</v>
+        <v>-27.55960073888118</v>
       </c>
       <c r="F37" t="n">
-        <v>1.713039425366925</v>
+        <v>1.528606530319426</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.427667818326273</v>
+        <v>-7.45104704916386</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.940654074216487</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.59694306426846</v>
+        <v>-27.03584143322858</v>
       </c>
       <c r="F38" t="n">
-        <v>1.508742495419151</v>
+        <v>1.392374353972841</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.346891646871104</v>
+        <v>-7.417264011713478</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.318221956830397</v>
       </c>
       <c r="E39" t="n">
-        <v>-25.85621207836561</v>
+        <v>-26.29397375322917</v>
       </c>
       <c r="F39" t="n">
-        <v>1.533945325818097</v>
+        <v>1.444779618579302</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.367322806567941</v>
+        <v>-7.401961420220034</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.691245705118359</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.18947865589695</v>
+        <v>-25.63380137797591</v>
       </c>
       <c r="F40" t="n">
-        <v>1.642486167270476</v>
+        <v>1.484903697936073</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.141597359522478</v>
+        <v>-7.106792519636911</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.055599132394935</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.6562982340118</v>
+        <v>-25.09033448564278</v>
       </c>
       <c r="F41" t="n">
-        <v>1.660854166069475</v>
+        <v>1.505124630337634</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.193386609263708</v>
+        <v>-7.139079520986017</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.401541892778114</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.96695315478366</v>
+        <v>-24.37691104759508</v>
       </c>
       <c r="F42" t="n">
-        <v>1.717507977643286</v>
+        <v>1.516320456062869</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.926094825835734</v>
+        <v>-6.863236864547809</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.733157805214265</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.28674074038292</v>
+        <v>-23.67399897431125</v>
       </c>
       <c r="F43" t="n">
-        <v>1.6259026559779</v>
+        <v>1.467459721434921</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.938307564989288</v>
+        <v>-6.863676875165831</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.052568886449305</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.58930435479003</v>
+        <v>-22.985025459605</v>
       </c>
       <c r="F44" t="n">
-        <v>1.719771587822667</v>
+        <v>1.582014041333605</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.845690218902451</v>
+        <v>-6.762435320965756</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.353893328355103</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.81560924008701</v>
+        <v>-22.17272674668081</v>
       </c>
       <c r="F45" t="n">
-        <v>1.735890643462886</v>
+        <v>1.629804083457699</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.757174749576956</v>
+        <v>-6.656788771578591</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.642903489867323</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.3321793520796</v>
+        <v>-21.6651647207783</v>
       </c>
       <c r="F46" t="n">
-        <v>1.746358007164951</v>
+        <v>1.63587134097954</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.588851132155941</v>
+        <v>-6.512572847018334</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.926644112176082</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.728519007201</v>
+        <v>-21.0040243221654</v>
       </c>
       <c r="F47" t="n">
-        <v>1.820421572191846</v>
+        <v>1.709059773777257</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.625186231190853</v>
+        <v>-6.485771311373907</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.204308253047229</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.09007826747118</v>
+        <v>-20.36517290585875</v>
       </c>
       <c r="F48" t="n">
-        <v>1.850718747746117</v>
+        <v>1.744011283868832</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.600164294045983</v>
+        <v>-6.450722021144993</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.477832045003438</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.38938580330493</v>
+        <v>-19.62454703360354</v>
       </c>
       <c r="F49" t="n">
-        <v>1.953803457535019</v>
+        <v>1.896157177567225</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.266523798427105</v>
+        <v>-6.182031981753082</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.758387803537087</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.01043888105036</v>
+        <v>-19.24231958774126</v>
       </c>
       <c r="F50" t="n">
-        <v>1.967986466455939</v>
+        <v>1.911107760566251</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.28840210415655</v>
+        <v>-6.171799290380628</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.047411405742338</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.49018499332134</v>
+        <v>-18.65416228363766</v>
       </c>
       <c r="F51" t="n">
-        <v>1.956169736858606</v>
+        <v>1.875374009375969</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.291227950125627</v>
+        <v>-6.20609078454517</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.339349237196121</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.94228377175991</v>
+        <v>-18.11983783414566</v>
       </c>
       <c r="F52" t="n">
-        <v>1.976346668198364</v>
+        <v>1.902644889679621</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.331249360338193</v>
+        <v>-6.225553920882358</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.644626985683535</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.65022916855101</v>
+        <v>-17.73696503937695</v>
       </c>
       <c r="F53" t="n">
-        <v>2.043658514742049</v>
+        <v>1.996914720087475</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.266460241337835</v>
+        <v>-6.121530521775009</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.963683995705313</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.07893893813826</v>
+        <v>-17.12021193410876</v>
       </c>
       <c r="F54" t="n">
-        <v>2.128062329292469</v>
+        <v>2.055885920916203</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.16625026758668</v>
+        <v>-6.110505811290116</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.28311011057874</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.81658505164588</v>
+        <v>-16.86746983511673</v>
       </c>
       <c r="F55" t="n">
-        <v>2.020176614760256</v>
+        <v>2.003465989289141</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.408793898254331</v>
+        <v>-6.340108240781042</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.608604936832913</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.38760403311529</v>
+        <v>-16.32946885246081</v>
       </c>
       <c r="F56" t="n">
-        <v>2.069228020656014</v>
+        <v>2.037249026739524</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.24835624890965</v>
+        <v>-6.206506350128858</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.937569040723091</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.33167868356465</v>
+        <v>-16.23048601943324</v>
       </c>
       <c r="F57" t="n">
-        <v>2.043790517927456</v>
+        <v>2.077265547945222</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.365482186420331</v>
+        <v>-6.357048649574903</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.25244236950555</v>
       </c>
       <c r="E58" t="n">
-        <v>-16.01787777781172</v>
+        <v>-15.96926638253398</v>
       </c>
       <c r="F58" t="n">
-        <v>1.970636308177807</v>
+        <v>1.948288657789139</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.597128220781628</v>
+        <v>-6.52463891596588</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.54723825658105</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.75543588919572</v>
+        <v>-15.69363395339105</v>
       </c>
       <c r="F59" t="n">
-        <v>2.03909218232835</v>
+        <v>2.011102618015262</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.326898144226639</v>
+        <v>-6.326032790011194</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.81686996212209</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43283477108234</v>
+        <v>-15.42518347533561</v>
       </c>
       <c r="F60" t="n">
-        <v>2.017228543619507</v>
+        <v>2.076453972805314</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.302360218761592</v>
+        <v>-6.352575208291675</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.04464608706959</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.36099081517302</v>
+        <v>-15.27481718013678</v>
       </c>
       <c r="F61" t="n">
-        <v>2.008663003588672</v>
+        <v>2.013170667919967</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.135327299153443</v>
+        <v>-6.199348844075694</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.21558621438701</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.27587320562003</v>
+        <v>-15.22197679391916</v>
       </c>
       <c r="F62" t="n">
-        <v>2.043189170082825</v>
+        <v>2.041013562027048</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.218831536440351</v>
+        <v>-6.281860612968618</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.32948699814467</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.16343582569472</v>
+        <v>-15.12165926201694</v>
       </c>
       <c r="F63" t="n">
-        <v>2.059772681375401</v>
+        <v>2.004003780044502</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.230677600078885</v>
+        <v>-6.346869737277986</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.37601274257896</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.30395077205672</v>
+        <v>-15.17724238108689</v>
       </c>
       <c r="F64" t="n">
-        <v>1.895208710235043</v>
+        <v>1.855905984031914</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.211449136071309</v>
+        <v>-6.332906733666077</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.34096502014215</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.28922019436671</v>
+        <v>-15.1734876238131</v>
       </c>
       <c r="F65" t="n">
-        <v>1.932868730130889</v>
+        <v>1.86212480076663</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.262177471322418</v>
+        <v>-6.423856928411295</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.23331833243336</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.26799701555743</v>
+        <v>-15.16893106941314</v>
       </c>
       <c r="F66" t="n">
-        <v>1.926043676544676</v>
+        <v>1.915248749382528</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.174737583507644</v>
+        <v>-6.335023673639451</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.05465694221974</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.11077144372432</v>
+        <v>-15.03017127651636</v>
       </c>
       <c r="F67" t="n">
-        <v>1.76000322533051</v>
+        <v>1.723047222423501</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.958985710470688</v>
+        <v>-6.135508192407519</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.79851586062803</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.19526814940521</v>
+        <v>-15.13535825925803</v>
       </c>
       <c r="F68" t="n">
-        <v>1.709529118436481</v>
+        <v>1.687650812707036</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.023818830532846</v>
+        <v>-6.256393776198858</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.48109981332668</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.10478241031234</v>
+        <v>-15.03465938482018</v>
       </c>
       <c r="F69" t="n">
-        <v>1.769624790844599</v>
+        <v>1.684204062865861</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.754287881959826</v>
+        <v>-6.018049802429887</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.11652579570016</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.15233778010683</v>
+        <v>-15.07082825762162</v>
       </c>
       <c r="F70" t="n">
-        <v>1.581828259072662</v>
+        <v>1.557691232170703</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.752811401886017</v>
+        <v>-5.998024430303004</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.709610335389534</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.27604432086038</v>
+        <v>-15.08716731857085</v>
       </c>
       <c r="F71" t="n">
-        <v>1.550831955536421</v>
+        <v>1.462922723062424</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.673384596326117</v>
+        <v>-5.957220778991731</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.276147864672538</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.35818452523141</v>
+        <v>-15.19748286951592</v>
       </c>
       <c r="F72" t="n">
-        <v>1.435676287793107</v>
+        <v>1.37949182087852</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.536067060455077</v>
+        <v>-5.814085324949063</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.836990877035429</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.47130147711122</v>
+        <v>-15.32120407729007</v>
       </c>
       <c r="F73" t="n">
-        <v>1.369210239437398</v>
+        <v>1.299771674906605</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.684262636605003</v>
+        <v>-5.966725008341014</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.40108801857456</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.63192979772371</v>
+        <v>-15.4642417511954</v>
       </c>
       <c r="F74" t="n">
-        <v>1.306836289829297</v>
+        <v>1.18796008786026</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.539230247897971</v>
+        <v>-5.868724865693704</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.974795306625554</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.80270769659192</v>
+        <v>-15.68715601929239</v>
       </c>
       <c r="F75" t="n">
-        <v>1.194095791478238</v>
+        <v>1.101488223405135</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.538555564950337</v>
+        <v>-5.896621538876321</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.579545733055931</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.81453909320986</v>
+        <v>-15.71184061496344</v>
       </c>
       <c r="F76" t="n">
-        <v>1.014111892679632</v>
+        <v>0.9199496204228496</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.650851163676506</v>
+        <v>-6.002473426551896</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.221813408398174</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.85025328837267</v>
+        <v>-15.78777178061349</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8514644122311049</v>
+        <v>0.7589057342266712</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.526406382886053</v>
+        <v>-5.917497598198048</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.899014161163312</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.0483509576132</v>
+        <v>-15.94089547568527</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8653051906713412</v>
+        <v>0.7755772476428512</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.443205264024894</v>
+        <v>-5.896401533567309</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.626005659121544</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.19891281308671</v>
+        <v>-16.04748071439089</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6040366637034064</v>
+        <v>0.4955349343059629</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.478582117713891</v>
+        <v>-5.915365991204072</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.404849410105106</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.66697166350454</v>
+        <v>-16.54978216890459</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5828232629078623</v>
+        <v>0.4795723268854856</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.43051829120525</v>
+        <v>-5.856101449963329</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.224966879707217</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.19009050925758</v>
+        <v>-17.06472170616928</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4369352979991203</v>
+        <v>0.3119673934739073</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.398661522460432</v>
+        <v>-5.923408407500148</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.09351884955346</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.56135191271736</v>
+        <v>-17.48552830521838</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1316217081671487</v>
+        <v>-0.004400240884158945</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.447786263459194</v>
+        <v>-5.960657750819172</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.012844713570101</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.058329238753</v>
+        <v>-17.99318322225136</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1592152629240167</v>
+        <v>-0.01107373525749785</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.469679236209239</v>
+        <v>-5.985229899332287</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.97359941172026</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.93742156349298</v>
+        <v>-18.79106425392501</v>
       </c>
       <c r="F84" t="n">
-        <v>0.02117415403667315</v>
+        <v>-0.1003274446198971</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.423223892959813</v>
+        <v>-5.982188937061066</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.975314028486064</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.54442598906854</v>
+        <v>-19.46280401942539</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.09147834219078109</v>
+        <v>-0.2719071406142772</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.520549352659489</v>
+        <v>-6.072772456291267</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.023023288269479</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.25896900968876</v>
+        <v>-20.1423417508785</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.223696643899629</v>
+        <v>-0.3914238024828801</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.681407456594725</v>
+        <v>-6.299436592655177</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.110949922301369</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.94388464869548</v>
+        <v>-20.88260583662556</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.3293725273279955</v>
+        <v>-0.4942836179559036</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.011425198125218</v>
+        <v>-6.639002564596755</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.232813634536416</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.77710831101006</v>
+        <v>-21.71063737364748</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.4227134464311357</v>
+        <v>-0.6135656074948945</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.285546924146272</v>
+        <v>-6.887012104941617</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.397654946040735</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.73531943387732</v>
+        <v>-22.70295909742521</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6693051747845918</v>
+        <v>-0.8396235070073079</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.244938833109676</v>
+        <v>-6.92535658579883</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.602946809849611</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.86242129896215</v>
+        <v>-23.77843304999542</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9389534595224189</v>
+        <v>-1.1098975846241</v>
       </c>
       <c r="G90" t="n">
-        <v>-6.682676062938906</v>
+        <v>-7.321595925341686</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.83790023383581</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.12787716937382</v>
+        <v>-25.01483355259701</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9766037014045309</v>
+        <v>-1.080715102635485</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.018242827263347</v>
+        <v>-7.676410709701171</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.106605929490834</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.32690610348471</v>
+        <v>-26.25118027612307</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.191333772006302</v>
+        <v>-1.308772605956466</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.374402088511235</v>
+        <v>-7.998244253736448</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.402445549028332</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.57712538399564</v>
+        <v>-27.53919157971524</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.433520505172668</v>
+        <v>-1.570070466965603</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.791219257956935</v>
+        <v>-8.332173200760474</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.70445603885712</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.00263511671293</v>
+        <v>-29.02841484992217</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.753545116667187</v>
+        <v>-1.857064948067244</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.067692596280976</v>
+        <v>-8.665207459527853</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.007733780992469</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.65388985250315</v>
+        <v>-30.6319528786913</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.043551225998848</v>
+        <v>-2.134056521119177</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.46361903938435</v>
+        <v>-8.983960929236973</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.300477827241849</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.39905752119994</v>
+        <v>-32.45553777302998</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.098132098661086</v>
+        <v>-2.182638582355711</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.775200336019704</v>
+        <v>-9.353765408650419</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.562460554051576</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.10438222843482</v>
+        <v>-34.15850842345843</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.509595805587515</v>
+        <v>-2.546776702810403</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.224089390512368</v>
+        <v>-9.771648381593108</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.778806197604306</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.02488679490321</v>
+        <v>-36.14643972813188</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.913941118515716</v>
+        <v>-2.937330127367037</v>
       </c>
       <c r="G98" t="n">
-        <v>-9.605935493839027</v>
+        <v>-10.23006611046939</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.948909755133151</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.04483865005152</v>
+        <v>-38.20736146082494</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.199938242216507</v>
+        <v>-3.203585441339225</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.00208194225141</v>
+        <v>-10.60221731317895</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.055099608613652</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.20342562842151</v>
+        <v>-40.40710409900062</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.631363764180549</v>
+        <v>-3.569503160293475</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.21362926938282</v>
+        <v>-10.75318006721555</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.094169506943867</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.04273601334761</v>
+        <v>-42.3116216130142</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.10187200703871</v>
+        <v>-4.021359841954355</v>
       </c>
       <c r="G101" t="n">
-        <v>-10.50545408926897</v>
+        <v>-11.03949008735583</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.055509798596878</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.23035635899678</v>
+        <v>-44.53090316713351</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.434241360872189</v>
+        <v>-4.247466631535437</v>
       </c>
       <c r="G102" t="n">
-        <v>-10.71594539091713</v>
+        <v>-11.18838968049459</v>
       </c>
     </row>
   </sheetData>
